--- a/thesisstuff.xlsx
+++ b/thesisstuff.xlsx
@@ -12,19 +12,21 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="chromosome dataset features" sheetId="10" r:id="rId1"/>
-    <sheet name="Iteration 2 no BS" sheetId="9" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId3"/>
-    <sheet name="Iteration 1 minimal number" sheetId="8" r:id="rId4"/>
-    <sheet name="Samtoosl" sheetId="2" r:id="rId5"/>
-    <sheet name="HC" sheetId="3" r:id="rId6"/>
-    <sheet name="UG" sheetId="4" r:id="rId7"/>
-    <sheet name="FB" sheetId="5" r:id="rId8"/>
-    <sheet name="pindel" sheetId="6" r:id="rId9"/>
-    <sheet name="breakseq2" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId1"/>
+    <sheet name="CON NN SINGLE CALL STATS" sheetId="12" r:id="rId2"/>
+    <sheet name="chromosome dataset features" sheetId="10" r:id="rId3"/>
+    <sheet name="Iteration 2 no BS" sheetId="9" r:id="rId4"/>
+    <sheet name="DATASET FROM OTHER CALLERS" sheetId="11" r:id="rId5"/>
+    <sheet name="Iteration 1 minimal number" sheetId="8" r:id="rId6"/>
+    <sheet name="Samtoosl" sheetId="2" r:id="rId7"/>
+    <sheet name="HC" sheetId="3" r:id="rId8"/>
+    <sheet name="UG" sheetId="4" r:id="rId9"/>
+    <sheet name="FB" sheetId="5" r:id="rId10"/>
+    <sheet name="pindel" sheetId="6" r:id="rId11"/>
+    <sheet name="breakseq2" sheetId="7" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="mycsv" localSheetId="0">'chromosome dataset features'!$A$2:$E$25</definedName>
+    <definedName name="mycsv" localSheetId="2">'chromosome dataset features'!$A$2:$E$25</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="404">
   <si>
     <t>Samtools</t>
   </si>
@@ -963,6 +965,333 @@
   </si>
   <si>
     <t>final F1 score is :  0.853072055798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[/data/backup/metacaller/stage/analysis/mason_version_1.0/slave]$ cat latest_hcscores.txt </t>
+  </si>
+  <si>
+    <t>length of truth dictionary 290029</t>
+  </si>
+  <si>
+    <t>length of sample dictionary 456547</t>
+  </si>
+  <si>
+    <t>lengths of actual_predictions, final_array_of_samples, final_truth_list 456547 456547 456547</t>
+  </si>
+  <si>
+    <t>array of predicted new length is 469667</t>
+  </si>
+  <si>
+    <t>true positives : 276909</t>
+  </si>
+  <si>
+    <t>false positives : 179638</t>
+  </si>
+  <si>
+    <t>false negatives : 13120</t>
+  </si>
+  <si>
+    <t>final recall score is : 0.954763144375</t>
+  </si>
+  <si>
+    <t>final F1 score is :  0.741810612717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[/data/backup/metacaller/stage/analysis/mason_version_1.0/slave]$ cat latest_stscores.txt </t>
+  </si>
+  <si>
+    <t>length of sample dictionary 1215878</t>
+  </si>
+  <si>
+    <t>lengths of actual_predictions, final_array_of_samples, final_truth_list 1215878 1215878 1215878</t>
+  </si>
+  <si>
+    <t>array of predicted new length is 1224828</t>
+  </si>
+  <si>
+    <t>false negatives : 8950</t>
+  </si>
+  <si>
+    <t>final F1 score is :  0.373301936972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[/data/backup/metacaller/stage/analysis/mason_version_1.0/slave]$ cat latest_ugscores.txt </t>
+  </si>
+  <si>
+    <t>length of sample dictionary 2992726</t>
+  </si>
+  <si>
+    <t>lengths of actual_predictions, final_array_of_samples, final_truth_list 2992726 2992726 2992726</t>
+  </si>
+  <si>
+    <t>array of predicted new length is 3022866</t>
+  </si>
+  <si>
+    <t>true positives : 259889</t>
+  </si>
+  <si>
+    <t>false positives : 2732837</t>
+  </si>
+  <si>
+    <t>false negatives : 30140</t>
+  </si>
+  <si>
+    <t>final precision score is : 0.0868402252662</t>
+  </si>
+  <si>
+    <t>final recall score is : 0.896079357581</t>
+  </si>
+  <si>
+    <t>final F1 score is :  0.158335909929</t>
+  </si>
+  <si>
+    <t>final recall score is : 0.969141016933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[/data/backup/metacaller/stage/analysis/mason_version_1.0/slave]$ cat latest_fbscores.txt </t>
+  </si>
+  <si>
+    <t>length of sample dictionary 500699</t>
+  </si>
+  <si>
+    <t>lengths of actual_predictions, final_array_of_samples, final_truth_list 500699 500699 500699</t>
+  </si>
+  <si>
+    <t>array of predicted new length is 511956</t>
+  </si>
+  <si>
+    <t>true positives : 278772</t>
+  </si>
+  <si>
+    <t>false positives : 221927</t>
+  </si>
+  <si>
+    <t>false negatives : 11257</t>
+  </si>
+  <si>
+    <t>final precision score is : 0.556765641633</t>
+  </si>
+  <si>
+    <t>final recall score is : 0.961186639957</t>
+  </si>
+  <si>
+    <t>final F1 score is :  0.70510213373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[/data/backup/metacaller/stage/analysis/mason_version_1.0/slave]$ cat latest_pindelscores.txt </t>
+  </si>
+  <si>
+    <t>length of sample dictionary 1839923</t>
+  </si>
+  <si>
+    <t>lengths of actual_predictions, final_array_of_samples, final_truth_list 1839923 1839923 1839923</t>
+  </si>
+  <si>
+    <t>array of predicted new length is 2072751</t>
+  </si>
+  <si>
+    <t>false negatives : 232828</t>
+  </si>
+  <si>
+    <t>final recall score is : 0.197225105076</t>
+  </si>
+  <si>
+    <t>final F1 score is :  0.0537110695452</t>
+  </si>
+  <si>
+    <t>PRECISION</t>
+  </si>
+  <si>
+    <t>RECALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[/data/backup/metacaller/stage/analysis/mason_version_1.0/slave]$ cat latest_con_1scores.txt </t>
+  </si>
+  <si>
+    <t>length of sample dictionary 4834488</t>
+  </si>
+  <si>
+    <t>lengths of actual_predictions, final_array_of_samples, final_truth_list 4834488 4834488 4834488</t>
+  </si>
+  <si>
+    <t>array of predicted new length is 4841208</t>
+  </si>
+  <si>
+    <t>true positives : 286569</t>
+  </si>
+  <si>
+    <t>false positives : 4547919</t>
+  </si>
+  <si>
+    <t>false negatives : 6720</t>
+  </si>
+  <si>
+    <t>final precision score is : 0.0592759771045</t>
+  </si>
+  <si>
+    <t>final recall score is : 0.977087446171</t>
+  </si>
+  <si>
+    <t>final F1 score is :  0.111771241222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[/data/backup/metacaller/stage/analysis/mason_version_1.0/slave]$ cat latest_con_2scores.txt </t>
+  </si>
+  <si>
+    <t>length of sample dictionary 1292249</t>
+  </si>
+  <si>
+    <t>lengths of actual_predictions, final_array_of_samples, final_truth_list 1292249 1292249 1292249</t>
+  </si>
+  <si>
+    <t>array of predicted new length is 1300480</t>
+  </si>
+  <si>
+    <t>true positives : 281800</t>
+  </si>
+  <si>
+    <t>false positives : 1010449</t>
+  </si>
+  <si>
+    <t>false negatives : 8231</t>
+  </si>
+  <si>
+    <t>final precision score is : 0.218069427796</t>
+  </si>
+  <si>
+    <t>final recall score is : 0.971620275074</t>
+  </si>
+  <si>
+    <t>final F1 score is :  0.356194858053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[/data/backup/metacaller/stage/analysis/mason_version_1.0/slave]$ cat latest_con_3scores.txt </t>
+  </si>
+  <si>
+    <t>length of sample dictionary 467019</t>
+  </si>
+  <si>
+    <t>lengths of actual_predictions, final_array_of_samples, final_truth_list 467019 467019 467019</t>
+  </si>
+  <si>
+    <t>array of predicted new length is 477642</t>
+  </si>
+  <si>
+    <t>true positives : 279406</t>
+  </si>
+  <si>
+    <t>false positives : 187613</t>
+  </si>
+  <si>
+    <t>false negatives : 10623</t>
+  </si>
+  <si>
+    <t>final precision score is : 0.598275444896</t>
+  </si>
+  <si>
+    <t>final recall score is : 0.963372628254</t>
+  </si>
+  <si>
+    <t>final F1 score is :  0.738146062073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[/data/backup/metacaller/stage/analysis/mason_version_1.0/slave]$ cat latest_con_4scores.txt </t>
+  </si>
+  <si>
+    <t>length of sample dictionary 379092</t>
+  </si>
+  <si>
+    <t>lengths of actual_predictions, final_array_of_samples, final_truth_list 379092 379092 379092</t>
+  </si>
+  <si>
+    <t>array of predicted new length is 395971</t>
+  </si>
+  <si>
+    <t>true positives : 273150</t>
+  </si>
+  <si>
+    <t>false positives : 105942</t>
+  </si>
+  <si>
+    <t>false negatives : 16879</t>
+  </si>
+  <si>
+    <t>final precision score is : 0.720537494856</t>
+  </si>
+  <si>
+    <t>final recall score is : 0.941802371487</t>
+  </si>
+  <si>
+    <t>final F1 score is :  0.816444260455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/data/backup/metacaller/stage/analysis/mason_version_1.0/slave]$ cat latest_con_5scores.txt </t>
+  </si>
+  <si>
+    <t>length of sample dictionary 32925</t>
+  </si>
+  <si>
+    <t>lengths of actual_predictions, final_array_of_samples, final_truth_list 32925 32925 32925</t>
+  </si>
+  <si>
+    <t>array of predicted new length is 290029</t>
+  </si>
+  <si>
+    <t>true positives : 32925</t>
+  </si>
+  <si>
+    <t>false positives : 0</t>
+  </si>
+  <si>
+    <t>false negatives : 257104</t>
+  </si>
+  <si>
+    <t>final precision score is : 1.0</t>
+  </si>
+  <si>
+    <t>final recall score is : 0.113523130446</t>
+  </si>
+  <si>
+    <t>final F1 score is :  0.203899007289</t>
+  </si>
+  <si>
+    <t>Precisoin</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>Free Bayes</t>
+  </si>
+  <si>
+    <t>Haplotype Caller</t>
+  </si>
+  <si>
+    <t>Unified Genotyper</t>
+  </si>
+  <si>
+    <t>Pindel</t>
+  </si>
+  <si>
+    <t>1-Concordance</t>
+  </si>
+  <si>
+    <t>2-Concordance</t>
+  </si>
+  <si>
+    <t>3-Concordance</t>
+  </si>
+  <si>
+    <t>4-Concordance</t>
+  </si>
+  <si>
+    <t>5-Concordance</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1469,6 +1798,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1493,11 +1828,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1817,10 +2152,1288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q7" sqref="L5:Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>290029</v>
+      </c>
+      <c r="K5" t="s">
+        <v>391</v>
+      </c>
+      <c r="L5" s="14">
+        <v>5.9275977104499999E-2</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0.218069427796</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0.59827544489600004</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.72053749485600005</v>
+      </c>
+      <c r="P5" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>0.996467880907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="K6" t="s">
+        <v>271</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0.97708744617099996</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0.97162027507399995</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.96337262825400005</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.94180237148699997</v>
+      </c>
+      <c r="P6" s="14">
+        <v>0.113523130446</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>0.96298990790600003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="K7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0.111771241222</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0.356194858053</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0.73814606207300004</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0.81644426045499996</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0.20389900728900001</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0.979442903383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>290029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>290029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>290029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A57" s="14">
+        <v>290029</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69" t="s">
+        <v>339</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>340</v>
+      </c>
+      <c r="N2" s="69" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="K3" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="L3" s="69">
+        <v>0.55676564163300002</v>
+      </c>
+      <c r="M3" s="69">
+        <v>0.96118663995700004</v>
+      </c>
+      <c r="N3" s="69">
+        <v>0.70510213372999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="K4" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="L4" s="69">
+        <v>0.606529010157</v>
+      </c>
+      <c r="M4" s="69">
+        <v>0.95476314437499998</v>
+      </c>
+      <c r="N4" s="69">
+        <v>0.741810612717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>290029</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="K5" s="69" t="s">
+        <v>397</v>
+      </c>
+      <c r="L5" s="69">
+        <v>8.68402252662E-2</v>
+      </c>
+      <c r="M5" s="69">
+        <v>0.89607935758099999</v>
+      </c>
+      <c r="N5" s="69">
+        <v>0.15833590992900001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="K6" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="L6" s="69">
+        <v>3.1088800998700001E-2</v>
+      </c>
+      <c r="M6" s="69">
+        <v>0.197225105076</v>
+      </c>
+      <c r="N6" s="69">
+        <v>5.3711069545200003E-2</v>
+      </c>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="K7" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="69">
+        <v>0.231173686834</v>
+      </c>
+      <c r="M7" s="69">
+        <v>0.96914101693300003</v>
+      </c>
+      <c r="N7" s="69">
+        <v>0.37330193697199998</v>
+      </c>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="K8" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="L8" s="70">
+        <v>5.9275977104499999E-2</v>
+      </c>
+      <c r="M8" s="70">
+        <v>0.97708744617099996</v>
+      </c>
+      <c r="N8" s="70">
+        <v>0.111771241222</v>
+      </c>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="K9" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="L9" s="70">
+        <v>0.218069427796</v>
+      </c>
+      <c r="M9" s="70">
+        <v>0.97162027507399995</v>
+      </c>
+      <c r="N9" s="70">
+        <v>0.356194858053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="K10" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="L10" s="70">
+        <v>0.59827544489600004</v>
+      </c>
+      <c r="M10" s="70">
+        <v>0.96337262825400005</v>
+      </c>
+      <c r="N10" s="70">
+        <v>0.73814606207300004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="K11" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="L11" s="70">
+        <v>0.72053749485600005</v>
+      </c>
+      <c r="M11" s="70">
+        <v>0.94180237148699997</v>
+      </c>
+      <c r="N11" s="70">
+        <v>0.81644426045499996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="K12" s="69" t="s">
+        <v>403</v>
+      </c>
+      <c r="L12" s="70">
+        <v>1</v>
+      </c>
+      <c r="M12" s="70">
+        <v>0.113523130446</v>
+      </c>
+      <c r="N12" s="70">
+        <v>0.20389900728900001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="L13" s="70">
+        <v>0.996467880907</v>
+      </c>
+      <c r="M13" s="70">
+        <v>0.96298990790600003</v>
+      </c>
+      <c r="N13" s="70">
+        <v>0.979442903383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>290029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>290029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>290029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A57" s="14">
+        <v>290029</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2341,78 +3954,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C32" sqref="C32"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3714,11 +5262,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4256,7 +5804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM7"/>
   <sheetViews>
@@ -4800,7 +6348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -4819,18 +6367,18 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -4845,7 +6393,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -4860,7 +6408,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="2">
         <v>5</v>
       </c>
@@ -4875,7 +6423,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="2">
         <v>7</v>
       </c>
@@ -4890,7 +6438,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="2">
         <v>9</v>
       </c>
@@ -4905,7 +6453,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="2">
         <v>11</v>
       </c>
@@ -4920,7 +6468,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="2">
         <v>13</v>
       </c>
@@ -4935,7 +6483,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="62"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="3">
         <v>15</v>
       </c>
@@ -4953,125 +6501,131 @@
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
     </row>
     <row r="12" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
     </row>
     <row r="13" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
     </row>
     <row r="14" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
     </row>
     <row r="15" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
     </row>
     <row r="17" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
     </row>
     <row r="18" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
     </row>
     <row r="19" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
     </row>
     <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
     </row>
     <row r="21" spans="1:5" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
@@ -5079,18 +6633,12 @@
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
@@ -5220,7 +6768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A27"/>
   <sheetViews>
@@ -5363,289 +6911,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/thesisstuff.xlsx
+++ b/thesisstuff.xlsx
@@ -13,20 +13,21 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="13" r:id="rId1"/>
-    <sheet name="CON NN SINGLE CALL STATS" sheetId="12" r:id="rId2"/>
-    <sheet name="chromosome dataset features" sheetId="10" r:id="rId3"/>
-    <sheet name="Iteration 2 no BS" sheetId="9" r:id="rId4"/>
-    <sheet name="DATASET FROM OTHER CALLERS" sheetId="11" r:id="rId5"/>
-    <sheet name="Iteration 1 minimal number" sheetId="8" r:id="rId6"/>
-    <sheet name="Samtoosl" sheetId="2" r:id="rId7"/>
-    <sheet name="HC" sheetId="3" r:id="rId8"/>
-    <sheet name="UG" sheetId="4" r:id="rId9"/>
-    <sheet name="FB" sheetId="5" r:id="rId10"/>
-    <sheet name="pindel" sheetId="6" r:id="rId11"/>
-    <sheet name="breakseq2" sheetId="7" r:id="rId12"/>
+    <sheet name="PCA+FLAT+NORMAL STATS" sheetId="14" r:id="rId2"/>
+    <sheet name="CON NN SINGLE CALL STATS" sheetId="12" r:id="rId3"/>
+    <sheet name="chromosome dataset features" sheetId="10" r:id="rId4"/>
+    <sheet name="Iteration 2 no BS" sheetId="9" r:id="rId5"/>
+    <sheet name="DATASET FROM OTHER CALLERS" sheetId="11" r:id="rId6"/>
+    <sheet name="Iteration 1 minimal number" sheetId="8" r:id="rId7"/>
+    <sheet name="Samtoosl" sheetId="2" r:id="rId8"/>
+    <sheet name="HC" sheetId="3" r:id="rId9"/>
+    <sheet name="UG" sheetId="4" r:id="rId10"/>
+    <sheet name="FB" sheetId="5" r:id="rId11"/>
+    <sheet name="pindel" sheetId="6" r:id="rId12"/>
+    <sheet name="breakseq2" sheetId="7" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="mycsv" localSheetId="2">'chromosome dataset features'!$A$2:$E$25</definedName>
+    <definedName name="mycsv" localSheetId="3">'chromosome dataset features'!$A$2:$E$25</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="409">
   <si>
     <t>Samtools</t>
   </si>
@@ -1292,6 +1293,21 @@
   </si>
   <si>
     <t>5-Concordance</t>
+  </si>
+  <si>
+    <t>final precision score is : 0.0734576017015</t>
+  </si>
+  <si>
+    <t>final recall score is : 0.975378866228</t>
+  </si>
+  <si>
+    <t>final F1 score is :  0.136625669405</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>Old Architecture</t>
   </si>
 </sst>
 </file>
@@ -1771,6 +1787,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1827,12 +1849,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2155,7 +2171,7 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="L5:Q7"/>
+      <selection activeCell="Q5" sqref="Q5:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2575,6 +2591,151 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A44"/>
   <sheetViews>
@@ -2809,7 +2970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -2859,7 +3020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -2926,10 +3087,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>0.996467880907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>0.96298990790600003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>0.979442903383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:N4"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2949,14 +3185,14 @@
         <v>296</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="N2" s="69" t="s">
+      <c r="N2" s="50" t="s">
         <v>272</v>
       </c>
     </row>
@@ -2965,16 +3201,16 @@
         <v>297</v>
       </c>
       <c r="C3" s="14"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="50" t="s">
         <v>395</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="50">
         <v>0.55676564163300002</v>
       </c>
-      <c r="M3" s="69">
+      <c r="M3" s="50">
         <v>0.96118663995700004</v>
       </c>
-      <c r="N3" s="69">
+      <c r="N3" s="50">
         <v>0.70510213372999997</v>
       </c>
     </row>
@@ -2983,16 +3219,16 @@
         <v>298</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="50">
         <v>0.606529010157</v>
       </c>
-      <c r="M4" s="69">
+      <c r="M4" s="50">
         <v>0.95476314437499998</v>
       </c>
-      <c r="N4" s="69">
+      <c r="N4" s="50">
         <v>0.741810612717</v>
       </c>
     </row>
@@ -3001,16 +3237,16 @@
         <v>290029</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="50" t="s">
         <v>397</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L5" s="50">
         <v>8.68402252662E-2</v>
       </c>
-      <c r="M5" s="69">
+      <c r="M5" s="50">
         <v>0.89607935758099999</v>
       </c>
-      <c r="N5" s="69">
+      <c r="N5" s="50">
         <v>0.15833590992900001</v>
       </c>
     </row>
@@ -3019,16 +3255,16 @@
         <v>299</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="50" t="s">
         <v>398</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="50">
         <v>3.1088800998700001E-2</v>
       </c>
-      <c r="M6" s="69">
+      <c r="M6" s="50">
         <v>0.197225105076</v>
       </c>
-      <c r="N6" s="69">
+      <c r="N6" s="50">
         <v>5.3711069545200003E-2</v>
       </c>
       <c r="P6" s="14"/>
@@ -3038,16 +3274,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="K7" s="69" t="s">
+      <c r="K7" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="50">
         <v>0.231173686834</v>
       </c>
-      <c r="M7" s="69">
+      <c r="M7" s="50">
         <v>0.96914101693300003</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="50">
         <v>0.37330193697199998</v>
       </c>
       <c r="P7" s="14"/>
@@ -3057,16 +3293,16 @@
         <v>301</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="K8" s="69" t="s">
+      <c r="K8" s="50" t="s">
         <v>399</v>
       </c>
-      <c r="L8" s="70">
+      <c r="L8" s="51">
         <v>5.9275977104499999E-2</v>
       </c>
-      <c r="M8" s="70">
+      <c r="M8" s="51">
         <v>0.97708744617099996</v>
       </c>
-      <c r="N8" s="70">
+      <c r="N8" s="51">
         <v>0.111771241222</v>
       </c>
       <c r="P8" s="14"/>
@@ -3076,16 +3312,16 @@
         <v>302</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="K9" s="69" t="s">
+      <c r="K9" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="L9" s="70">
+      <c r="L9" s="51">
         <v>0.218069427796</v>
       </c>
-      <c r="M9" s="70">
+      <c r="M9" s="51">
         <v>0.97162027507399995</v>
       </c>
-      <c r="N9" s="70">
+      <c r="N9" s="51">
         <v>0.356194858053</v>
       </c>
     </row>
@@ -3094,16 +3330,16 @@
         <v>207</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="50" t="s">
         <v>401</v>
       </c>
-      <c r="L10" s="70">
+      <c r="L10" s="51">
         <v>0.59827544489600004</v>
       </c>
-      <c r="M10" s="70">
+      <c r="M10" s="51">
         <v>0.96337262825400005</v>
       </c>
-      <c r="N10" s="70">
+      <c r="N10" s="51">
         <v>0.73814606207300004</v>
       </c>
     </row>
@@ -3112,16 +3348,16 @@
         <v>217</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="K11" s="69" t="s">
+      <c r="K11" s="50" t="s">
         <v>402</v>
       </c>
-      <c r="L11" s="70">
+      <c r="L11" s="51">
         <v>0.72053749485600005</v>
       </c>
-      <c r="M11" s="70">
+      <c r="M11" s="51">
         <v>0.94180237148699997</v>
       </c>
-      <c r="N11" s="70">
+      <c r="N11" s="51">
         <v>0.81644426045499996</v>
       </c>
     </row>
@@ -3130,16 +3366,16 @@
         <v>303</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="L12" s="70">
+      <c r="L12" s="51">
         <v>1</v>
       </c>
-      <c r="M12" s="70">
+      <c r="M12" s="51">
         <v>0.113523130446</v>
       </c>
-      <c r="N12" s="70">
+      <c r="N12" s="51">
         <v>0.20389900728900001</v>
       </c>
     </row>
@@ -3147,16 +3383,16 @@
       <c r="A13" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="K13" s="69" t="s">
+      <c r="K13" s="50" t="s">
         <v>394</v>
       </c>
-      <c r="L13" s="70">
+      <c r="L13" s="51">
         <v>0.996467880907</v>
       </c>
-      <c r="M13" s="70">
+      <c r="M13" s="51">
         <v>0.96298990790600003</v>
       </c>
-      <c r="N13" s="70">
+      <c r="N13" s="51">
         <v>0.979442903383</v>
       </c>
     </row>
@@ -3428,7 +3664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -3954,7 +4190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI69"/>
   <sheetViews>
@@ -4000,25 +4236,25 @@
       <c r="D1" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51" t="s">
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
       <c r="R1" s="15" t="s">
         <v>149</v>
       </c>
@@ -4031,10 +4267,10 @@
       <c r="U1" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="W1" s="50"/>
+      <c r="W1" s="52"/>
       <c r="X1" s="15" t="s">
         <v>160</v>
       </c>
@@ -4059,11 +4295,11 @@
       <c r="AE1" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
       <c r="AI1" s="13" t="s">
         <v>196</v>
       </c>
@@ -4677,29 +4913,29 @@
       <c r="A20" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="54" t="s">
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
     </row>
     <row r="21" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>290030</v>
       </c>
-      <c r="E21" s="53"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="26" t="s">
         <v>230</v>
       </c>
@@ -5262,7 +5498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -5278,26 +5514,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="54" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="2:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="53"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="26" t="s">
         <v>230</v>
       </c>
@@ -5641,7 +5877,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="60" t="s">
         <v>235</v>
       </c>
       <c r="B17" s="47" t="s">
@@ -5658,7 +5894,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="47" t="s">
         <v>273</v>
       </c>
@@ -5676,7 +5912,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="48" t="s">
         <v>272</v>
       </c>
@@ -5694,7 +5930,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="59" t="s">
         <v>206</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5713,7 +5949,7 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="47" t="s">
         <v>273</v>
       </c>
@@ -5730,7 +5966,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="57"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="47" t="s">
         <v>272</v>
       </c>
@@ -5745,7 +5981,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="47" t="s">
@@ -5762,7 +5998,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="57"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="47" t="s">
         <v>273</v>
       </c>
@@ -5777,7 +6013,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="47" t="s">
         <v>272</v>
       </c>
@@ -5804,7 +6040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM7"/>
   <sheetViews>
@@ -6348,7 +6584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -6367,18 +6603,18 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -6393,7 +6629,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -6408,7 +6644,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="2">
         <v>5</v>
       </c>
@@ -6423,7 +6659,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="2">
         <v>7</v>
       </c>
@@ -6438,7 +6674,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="2">
         <v>9</v>
       </c>
@@ -6453,7 +6689,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="2">
         <v>11</v>
       </c>
@@ -6468,7 +6704,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="2">
         <v>13</v>
       </c>
@@ -6483,7 +6719,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="64"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="3">
         <v>15</v>
       </c>
@@ -6501,122 +6737,122 @@
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
     </row>
     <row r="12" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
     </row>
     <row r="13" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
     </row>
     <row r="14" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
     </row>
     <row r="15" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
     </row>
     <row r="17" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
     </row>
     <row r="18" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
     </row>
     <row r="19" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
     </row>
     <row r="21" spans="1:5" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6638,7 +6874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
@@ -6766,149 +7002,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>